--- a/webrouting/src/main/resources/static/documents/Drivers - SAMPLE.xlsx
+++ b/webrouting/src/main/resources/static/documents/Drivers - SAMPLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPSC 488 Software Engineering\excel samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dakot\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A3363F-DDB8-4251-9BB7-F272DA567F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1728D88C-2044-4997-88F6-6C1226ACD7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="26280" windowHeight="15885" xr2:uid="{6F7B2A25-9F4D-490E-B70D-6C9AB6577A80}"/>
+    <workbookView xWindow="4245" yWindow="4245" windowWidth="27045" windowHeight="15195" xr2:uid="{6F7B2A25-9F4D-490E-B70D-6C9AB6577A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>William Shatner</t>
   </si>
   <si>
-    <t>Dakota Myers</t>
-  </si>
-  <si>
     <t>Alea Cramer</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>CDL</t>
+  </si>
+  <si>
+    <t>Franz Ferdinand</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,24 +594,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="6">
         <v>46470</v>
@@ -623,12 +623,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6">
         <v>48364</v>
@@ -637,66 +637,66 @@
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="6">
         <v>47150</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="6">
         <v>46117</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="6">
         <v>50293</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="6">
         <v>50994</v>
@@ -705,44 +705,44 @@
         <v>0</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="6">
         <v>47212</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="6">
         <v>50254</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
